--- a/thématique SI/@parcours/découpage_parcours.xlsx
+++ b/thématique SI/@parcours/découpage_parcours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Library/Mobile Documents/com~apple~CloudDocs/Documents/pro/ISIS/2023-2024/dev/projet-FENS/thématique SI/@parcours/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Documents/dev/projet-FENS/thématique SI/@parcours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C05598-B761-0B4B-8D3A-DB40222D614A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF96E8E1-6139-3443-A524-6EF7D0199C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="0" windowWidth="24460" windowHeight="21040" xr2:uid="{A4F29CA4-E8D0-5846-A34B-CC524442BAF9}"/>
+    <workbookView xWindow="840" yWindow="0" windowWidth="30900" windowHeight="21040" xr2:uid="{A4F29CA4-E8D0-5846-A34B-CC524442BAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Découpage module E3-1-ISI1-4" sheetId="2" r:id="rId1"/>
@@ -2626,23 +2626,24 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="53" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="53" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="53" style="2"/>
+    <col min="4" max="4" width="36.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="53" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>5</v>
@@ -2660,7 +2661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2849,7 +2850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2882,7 +2883,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -2940,25 +2941,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="25"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="25"/>
     </row>
   </sheetData>
